--- a/paramData Excels/P0034.xlsx
+++ b/paramData Excels/P0034.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Go\Param_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{566E5156-6E4C-4BC6-B401-0193968B9E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>COLUMN_KEY</t>
   </si>
@@ -109,15 +115,34 @@
   </si>
   <si>
     <t>PdfLocation</t>
+  </si>
+  <si>
+    <t>Name of the Template</t>
+  </si>
+  <si>
+    <t>Templates and its location with full path</t>
+  </si>
+  <si>
+    <t>Location of the template in the particular folder</t>
+  </si>
+  <si>
+    <t>Pdf Location of the Template (path of the Pdf file)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,12 +165,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,27 +464,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="26" max="26" width="44.21875" customWidth="1"/>
+    <col min="27" max="27" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>23</v>
       </c>
@@ -531,8 +579,14 @@
       <c r="Q2" t="s">
         <v>26</v>
       </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
@@ -557,8 +611,12 @@
       <c r="K3" t="s">
         <v>22</v>
       </c>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>3</v>
       </c>
@@ -582,6 +640,9 @@
       </c>
       <c r="K4" t="s">
         <v>22</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
